--- a/config_hlw/task_fish_daily_server.xlsx
+++ b/config_hlw/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>"prop_fish_summon_fish","prop_fish_lock","prop_fish_frozen"</t>
-  </si>
-  <si>
-    <t>"prop_3d_fish_frozen","prop_3d_fish_lock","prop_3d_fish_summon_fish"</t>
   </si>
   <si>
     <t>fish_game_id</t>
@@ -549,10 +546,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>prop_3d_fish_summon_fish</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>在捕鱼中累计赢金50万</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -606,10 +599,6 @@
     <t>fish_coin</t>
   </si>
   <si>
-    <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>jing_bi</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -647,10 +636,6 @@
   </si>
   <si>
     <t>3D捕鱼中累计在线90分钟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_50flq_86400</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -825,10 +810,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>obj_3d_500flq_86400</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>jing_bi</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -845,10 +826,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>obj_3d_200flq_86400</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>击杀BOSS鱼1条</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -878,10 +855,6 @@
   </si>
   <si>
     <t>20,21,22,23,24,25,26,27,38,39,40,41,43,46,47,48,49,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_1000flq_86400</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1328,10 +1301,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_3d_fish_frozen","prop_3d_fish_lock","prop_3d_fish_summon_fish","prop_3d_fish_accelerate","prop_3d_fish_wild","prop_3d_fish_doubled"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>p_task_fish_daily_cps</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1462,6 +1431,30 @@
   <si>
     <t>水果消消乐出现一次幸运时刻（单局至少投入30000）</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_frozen","prop_fish_lock","prop_fish_summon_fish"</t>
+  </si>
+  <si>
+    <t>"prop_fish_frozen","prop_fish_lock","prop_fish_summon_fish","prop_fish_accelerate","prop_fish_wild","prop_fish_doubled"</t>
+  </si>
+  <si>
+    <t>obj_50flq_86400</t>
+  </si>
+  <si>
+    <t>obj_200flq_86400</t>
+  </si>
+  <si>
+    <t>obj_500flq_86400</t>
+  </si>
+  <si>
+    <t>obj_1000flq_86400</t>
+  </si>
+  <si>
+    <t>prop_fish_lock</t>
+  </si>
+  <si>
+    <t>prop_fish_summon_fish</t>
   </si>
 </sst>
 </file>
@@ -2302,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="84" t="s">
         <v>14</v>
@@ -2382,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="84" t="s">
         <v>19</v>
@@ -2538,13 +2531,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E8" s="85" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F8" s="85" t="s">
         <v>15</v>
@@ -2577,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D9" s="84" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E9" s="85" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F9" s="84" t="s">
         <v>15</v>
@@ -2694,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G12" s="84">
         <v>12511</v>
@@ -2733,16 +2726,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="79" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F13" s="78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" s="79">
         <v>12512</v>
@@ -2772,16 +2765,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G14" s="56">
         <v>12513</v>
@@ -2811,16 +2804,16 @@
         <v>0</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" s="56">
         <v>12514</v>
@@ -2850,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="56">
         <v>12515</v>
@@ -2889,16 +2882,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E17" s="79" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G17" s="79">
         <v>12516</v>
@@ -2928,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="84" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G18" s="84">
         <v>12517</v>
@@ -2967,16 +2960,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" s="84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="85" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F19" s="84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="85">
         <v>12518</v>
@@ -3006,16 +2999,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E20" s="79" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="79">
         <v>12519</v>
@@ -3048,10 +3041,10 @@
         <v>17</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E21" s="79" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F21" s="79" t="s">
         <v>15</v>
@@ -3087,10 +3080,10 @@
         <v>24</v>
       </c>
       <c r="D22" s="79" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E22" s="79" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F22" s="79" t="s">
         <v>15</v>
@@ -3126,10 +3119,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E23" s="79" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F23" s="79" t="s">
         <v>15</v>
@@ -3165,10 +3158,10 @@
         <v>20</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E24" s="79" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F24" s="79" t="s">
         <v>15</v>
@@ -3201,13 +3194,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="84" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D25" s="84" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F25" s="85" t="s">
         <v>15</v>
@@ -3240,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="84" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D26" s="84" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E26" s="84" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F26" s="85" t="s">
         <v>15</v>
@@ -3279,13 +3272,13 @@
         <v>0</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D27" s="84" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E27" s="84" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F27" s="85" t="s">
         <v>15</v>
@@ -3318,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="84" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D28" s="84" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E28" s="85" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F28" s="85" t="s">
         <v>15</v>
@@ -3357,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="84" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D29" s="84" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F29" s="85" t="s">
         <v>15</v>
@@ -3396,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="84" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D30" s="84" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F30" s="85" t="s">
         <v>15</v>
@@ -3435,13 +3428,13 @@
         <v>0</v>
       </c>
       <c r="C31" s="84" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F31" s="85" t="s">
         <v>15</v>
@@ -3474,13 +3467,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="84" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D32" s="84" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E32" s="84" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F32" s="85" t="s">
         <v>15</v>
@@ -3513,13 +3506,13 @@
         <v>0</v>
       </c>
       <c r="C33" s="84" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D33" s="84" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E33" s="84" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F33" s="85" t="s">
         <v>15</v>
@@ -3552,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="84" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D34" s="84" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E34" s="84" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F34" s="85" t="s">
         <v>15</v>
@@ -3591,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C35" s="84" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D35" s="84" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E35" s="85" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F35" s="85" t="s">
         <v>15</v>
@@ -3630,13 +3623,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D36" s="84" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E36" s="85" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F36" s="85" t="s">
         <v>15</v>
@@ -3669,13 +3662,13 @@
         <v>0</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D37" s="84" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E37" s="84" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F37" s="85" t="s">
         <v>15</v>
@@ -3708,16 +3701,16 @@
         <v>0</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D38" s="84" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E38" s="84" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F38" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G38" s="84">
         <v>12537</v>
@@ -3750,10 +3743,10 @@
         <v>20</v>
       </c>
       <c r="D39" s="84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E39" s="85" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F39" s="85" t="s">
         <v>15</v>
@@ -3786,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="C40" s="84" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D40" s="84" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E40" s="84" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F40" s="85" t="s">
         <v>15</v>
@@ -3825,13 +3818,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="84" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D41" s="84" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E41" s="84" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F41" s="85" t="s">
         <v>15</v>
@@ -3864,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="C42" s="84" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D42" s="84" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E42" s="84" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F42" s="85" t="s">
         <v>15</v>
@@ -3903,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="84" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D43" s="84" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F43" s="85" t="s">
         <v>15</v>
@@ -3942,16 +3935,16 @@
         <v>1</v>
       </c>
       <c r="C44" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D44" s="81" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E44" s="82" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F44" s="82" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G44" s="81">
         <v>12543</v>
@@ -3981,16 +3974,16 @@
         <v>1</v>
       </c>
       <c r="C45" s="81" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D45" s="81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E45" s="82" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F45" s="81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G45" s="81">
         <v>12544</v>
@@ -4023,13 +4016,13 @@
         <v>17</v>
       </c>
       <c r="D46" s="81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E46" s="82" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F46" s="82" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G46" s="81">
         <v>12545</v>
@@ -4062,13 +4055,13 @@
         <v>22</v>
       </c>
       <c r="D47" s="81" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E47" s="82" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F47" s="82" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G47" s="81">
         <v>12546</v>
@@ -4101,13 +4094,13 @@
         <v>20</v>
       </c>
       <c r="D48" s="81" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E48" s="82" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F48" s="82" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G48" s="81">
         <v>12547</v>
@@ -4137,13 +4130,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D49" s="71" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F49" s="70" t="s">
         <v>15</v>
@@ -4179,10 +4172,10 @@
         <v>17</v>
       </c>
       <c r="D50" s="71" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F50" s="70" t="s">
         <v>15</v>
@@ -4218,10 +4211,10 @@
         <v>22</v>
       </c>
       <c r="D51" s="71" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F51" s="70" t="s">
         <v>15</v>
@@ -4257,10 +4250,10 @@
         <v>20</v>
       </c>
       <c r="D52" s="71" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E52" s="70" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F52" s="70" t="s">
         <v>15</v>
@@ -4293,16 +4286,16 @@
         <v>1</v>
       </c>
       <c r="C53" s="70" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D53" s="71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F53" s="71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G53" s="70">
         <v>12516</v>
@@ -4332,16 +4325,16 @@
         <v>1</v>
       </c>
       <c r="C54" s="78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D54" s="78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" s="79" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F54" s="78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G54" s="79">
         <v>12548</v>
@@ -4374,10 +4367,10 @@
         <v>24</v>
       </c>
       <c r="D55" s="79" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E55" s="79" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F55" s="79" t="s">
         <v>15</v>
@@ -4410,16 +4403,16 @@
         <v>1</v>
       </c>
       <c r="C56" s="78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" s="78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E56" s="79" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F56" s="78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G56" s="79">
         <v>12512</v>
@@ -4452,10 +4445,10 @@
         <v>24</v>
       </c>
       <c r="D57" s="79" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E57" s="79" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F57" s="79" t="s">
         <v>15</v>
@@ -4488,13 +4481,13 @@
         <v>0</v>
       </c>
       <c r="C58" s="88" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D58" s="88" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E58" s="88" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F58" s="88" t="s">
         <v>15</v>
@@ -4527,13 +4520,13 @@
         <v>0</v>
       </c>
       <c r="C59" s="88" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D59" s="88" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E59" s="88" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F59" s="88" t="s">
         <v>15</v>
@@ -4566,13 +4559,13 @@
         <v>0</v>
       </c>
       <c r="C60" s="88" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D60" s="88" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E60" s="88" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F60" s="88" t="s">
         <v>15</v>
@@ -4605,13 +4598,13 @@
         <v>0</v>
       </c>
       <c r="C61" s="88" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E61" s="88" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F61" s="88" t="s">
         <v>15</v>
@@ -4644,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="C62" s="88" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D62" s="90" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E62" s="88" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F62" s="88" t="s">
         <v>15</v>
@@ -4683,13 +4676,13 @@
         <v>0</v>
       </c>
       <c r="C63" s="88" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D63" s="88" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E63" s="88" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F63" s="88" t="s">
         <v>15</v>
@@ -4722,13 +4715,13 @@
         <v>0</v>
       </c>
       <c r="C64" s="88" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D64" s="88" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E64" s="88" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F64" s="88" t="s">
         <v>15</v>
@@ -4761,13 +4754,13 @@
         <v>0</v>
       </c>
       <c r="C65" s="88" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D65" s="88" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E65" s="88" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F65" s="88" t="s">
         <v>15</v>
@@ -4800,13 +4793,13 @@
         <v>0</v>
       </c>
       <c r="C66" s="88" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D66" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="E66" s="88" t="s">
         <v>255</v>
-      </c>
-      <c r="E66" s="88" t="s">
-        <v>262</v>
       </c>
       <c r="F66" s="88" t="s">
         <v>15</v>
@@ -4839,13 +4832,13 @@
         <v>0</v>
       </c>
       <c r="C67" s="88" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D67" s="88" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E67" s="88" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F67" s="88" t="s">
         <v>15</v>
@@ -4878,13 +4871,13 @@
         <v>0</v>
       </c>
       <c r="C68" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" s="88" t="s">
         <v>253</v>
       </c>
-      <c r="D68" s="88" t="s">
-        <v>260</v>
-      </c>
       <c r="E68" s="88" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F68" s="88" t="s">
         <v>15</v>
@@ -4917,13 +4910,13 @@
         <v>0</v>
       </c>
       <c r="C69" s="88" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D69" s="88" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E69" s="88" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F69" s="88" t="s">
         <v>15</v>
@@ -4956,13 +4949,13 @@
         <v>0</v>
       </c>
       <c r="C70" s="88" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D70" s="88" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E70" s="88" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F70" s="88" t="s">
         <v>15</v>
@@ -4995,13 +4988,13 @@
         <v>0</v>
       </c>
       <c r="C71" s="88" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D71" s="88" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E71" s="88" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F71" s="88" t="s">
         <v>15</v>
@@ -5034,16 +5027,16 @@
         <v>1</v>
       </c>
       <c r="C72" s="91" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D72" s="91" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E72" s="91" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F72" s="91" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G72" s="91">
         <v>12614</v>
@@ -5073,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="C73" s="91" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D73" s="91" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E73" s="91" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F73" s="91" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G73" s="91">
         <v>12615</v>
@@ -5112,13 +5105,13 @@
         <v>1</v>
       </c>
       <c r="C74" s="91" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E74" s="91" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F74" s="91" t="s">
         <v>15</v>
@@ -5151,16 +5144,16 @@
         <v>1</v>
       </c>
       <c r="C75" s="91" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D75" s="91" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E75" s="91" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F75" s="91" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G75" s="91">
         <v>12617</v>
@@ -5190,16 +5183,16 @@
         <v>1</v>
       </c>
       <c r="C76" s="91" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D76" s="91" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E76" s="91" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F76" s="91" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G76" s="91">
         <v>12618</v>
@@ -5229,16 +5222,16 @@
         <v>1</v>
       </c>
       <c r="C77" s="91" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D77" s="91" t="s">
+        <v>335</v>
+      </c>
+      <c r="E77" s="91" t="s">
+        <v>255</v>
+      </c>
+      <c r="F77" s="91" t="s">
         <v>343</v>
-      </c>
-      <c r="E77" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="F77" s="91" t="s">
-        <v>351</v>
       </c>
       <c r="G77" s="91">
         <v>12619</v>
@@ -5268,13 +5261,13 @@
         <v>1</v>
       </c>
       <c r="C78" s="93" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D78" s="93" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E78" s="91" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F78" s="91" t="s">
         <v>15</v>
@@ -5313,7 +5306,7 @@
         <v>34</v>
       </c>
       <c r="E79" s="41" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F79" s="41" t="s">
         <v>15</v>
@@ -5352,10 +5345,10 @@
         <v>34</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G80" s="41">
         <v>13001</v>
@@ -5391,10 +5384,10 @@
         <v>34</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G81" s="41">
         <v>13002</v>
@@ -6108,9 +6101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="A57:D57"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6134,7 +6127,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>36</v>
@@ -6149,7 +6142,7 @@
         <v>39</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I1" s="11"/>
     </row>
@@ -6438,7 +6431,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="25" customFormat="1">
@@ -6462,7 +6455,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="25" customFormat="1">
@@ -6486,7 +6479,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="25" customFormat="1">
@@ -6510,7 +6503,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="29" customFormat="1">
@@ -6534,7 +6527,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="36" customFormat="1">
@@ -6558,7 +6551,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="25" customFormat="1">
@@ -6582,7 +6575,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="29" customFormat="1">
@@ -6606,7 +6599,7 @@
         <v>40</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="29" customFormat="1">
@@ -6630,7 +6623,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="29" customFormat="1">
@@ -6654,7 +6647,7 @@
         <v>40</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="29" customFormat="1">
@@ -6678,7 +6671,7 @@
         <v>40</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="29" customFormat="1">
@@ -6702,7 +6695,7 @@
         <v>40</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="38" customFormat="1">
@@ -6726,7 +6719,7 @@
         <v>40</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="38" customFormat="1">
@@ -6750,7 +6743,7 @@
         <v>40</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="38" customFormat="1">
@@ -6774,7 +6767,7 @@
         <v>40</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="38" customFormat="1">
@@ -6798,7 +6791,7 @@
         <v>40</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="38" customFormat="1">
@@ -6822,7 +6815,7 @@
         <v>40</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="38" customFormat="1">
@@ -6846,7 +6839,7 @@
         <v>40</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="38" customFormat="1">
@@ -6870,7 +6863,7 @@
         <v>40</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="38" customFormat="1">
@@ -6894,7 +6887,7 @@
         <v>40</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="38" customFormat="1">
@@ -6918,7 +6911,7 @@
         <v>40</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="38" customFormat="1">
@@ -6942,7 +6935,7 @@
         <v>40</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="38" customFormat="1">
@@ -6966,7 +6959,7 @@
         <v>40</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="38" customFormat="1">
@@ -6990,7 +6983,7 @@
         <v>40</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="38" customFormat="1">
@@ -7014,7 +7007,7 @@
         <v>40</v>
       </c>
       <c r="H37" s="44" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="36" customFormat="1">
@@ -7038,7 +7031,7 @@
         <v>40</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="47" customFormat="1">
@@ -7062,7 +7055,7 @@
         <v>40</v>
       </c>
       <c r="H39" s="46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="47" customFormat="1">
@@ -7086,7 +7079,7 @@
         <v>40</v>
       </c>
       <c r="H40" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="48" customFormat="1">
@@ -7110,7 +7103,7 @@
         <v>40</v>
       </c>
       <c r="H41" s="46" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="48" customFormat="1">
@@ -7134,7 +7127,7 @@
         <v>40</v>
       </c>
       <c r="H42" s="46" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="48" customFormat="1">
@@ -7158,7 +7151,7 @@
         <v>40</v>
       </c>
       <c r="H43" s="46" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="74" customFormat="1">
@@ -7182,7 +7175,7 @@
         <v>40</v>
       </c>
       <c r="H44" s="71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="74" customFormat="1">
@@ -7206,7 +7199,7 @@
         <v>40</v>
       </c>
       <c r="H45" s="71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="74" customFormat="1">
@@ -7230,7 +7223,7 @@
         <v>40</v>
       </c>
       <c r="H46" s="71" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="74" customFormat="1">
@@ -7254,7 +7247,7 @@
         <v>40</v>
       </c>
       <c r="H47" s="71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="74" customFormat="1">
@@ -7278,7 +7271,7 @@
         <v>40</v>
       </c>
       <c r="H48" s="71" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="29" customFormat="1">
@@ -7302,7 +7295,7 @@
         <v>40</v>
       </c>
       <c r="H49" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="29" customFormat="1">
@@ -7326,7 +7319,7 @@
         <v>40</v>
       </c>
       <c r="H50" s="42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="67" customFormat="1">
@@ -7350,7 +7343,7 @@
         <v>40</v>
       </c>
       <c r="H51" s="62" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="67" customFormat="1">
@@ -7374,7 +7367,7 @@
         <v>40</v>
       </c>
       <c r="H52" s="62" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="67" customFormat="1">
@@ -7398,7 +7391,7 @@
         <v>40</v>
       </c>
       <c r="H53" s="62" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="67" customFormat="1">
@@ -7422,7 +7415,7 @@
         <v>40</v>
       </c>
       <c r="H54" s="62" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="67" customFormat="1">
@@ -7446,7 +7439,7 @@
         <v>40</v>
       </c>
       <c r="H55" s="62" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="67" customFormat="1">
@@ -7470,7 +7463,7 @@
         <v>40</v>
       </c>
       <c r="H56" s="62" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="67" customFormat="1">
@@ -7494,7 +7487,7 @@
         <v>40</v>
       </c>
       <c r="H57" s="62" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="48" customFormat="1">
@@ -7518,7 +7511,7 @@
         <v>40</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="48" customFormat="1">
@@ -7542,7 +7535,7 @@
         <v>40</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="48" customFormat="1">
@@ -7566,7 +7559,7 @@
         <v>40</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="48" customFormat="1">
@@ -7590,7 +7583,7 @@
         <v>40</v>
       </c>
       <c r="H61" s="45" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="48" customFormat="1">
@@ -7614,7 +7607,7 @@
         <v>40</v>
       </c>
       <c r="H62" s="45" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="48" customFormat="1">
@@ -7638,7 +7631,7 @@
         <v>40</v>
       </c>
       <c r="H63" s="45" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="48" customFormat="1">
@@ -7653,7 +7646,7 @@
         <v>37</v>
       </c>
       <c r="E64" s="46" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F64" s="46">
         <v>1047</v>
@@ -7662,7 +7655,7 @@
         <v>40</v>
       </c>
       <c r="H64" s="45" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="67" customFormat="1">
@@ -7686,7 +7679,7 @@
         <v>40</v>
       </c>
       <c r="H65" s="62" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="67" customFormat="1">
@@ -7710,7 +7703,7 @@
         <v>40</v>
       </c>
       <c r="H66" s="62" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="67" customFormat="1">
@@ -7734,7 +7727,7 @@
         <v>40</v>
       </c>
       <c r="H67" s="62" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="67" customFormat="1">
@@ -7758,7 +7751,7 @@
         <v>40</v>
       </c>
       <c r="H68" s="62" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="67" customFormat="1">
@@ -7782,7 +7775,7 @@
         <v>40</v>
       </c>
       <c r="H69" s="62" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="48" customFormat="1">
@@ -7806,7 +7799,7 @@
         <v>40</v>
       </c>
       <c r="H70" s="45" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="74" customFormat="1">
@@ -7830,7 +7823,7 @@
         <v>40</v>
       </c>
       <c r="H71" s="71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="29" customFormat="1">
@@ -7843,16 +7836,16 @@
       <c r="C72" s="51"/>
       <c r="D72" s="51"/>
       <c r="E72" s="69" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F72" s="54" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G72" s="51" t="s">
         <v>40</v>
       </c>
       <c r="H72" s="55" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="29" customFormat="1">
@@ -7865,16 +7858,16 @@
       <c r="C73" s="51"/>
       <c r="D73" s="51"/>
       <c r="E73" s="69" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F73" s="59" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G73" s="51" t="s">
         <v>40</v>
       </c>
       <c r="H73" s="55" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="29" customFormat="1">
@@ -7887,16 +7880,16 @@
       <c r="C74" s="51"/>
       <c r="D74" s="51"/>
       <c r="E74" s="69" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F74" s="59" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G74" s="51" t="s">
         <v>40</v>
       </c>
       <c r="H74" s="55" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -8381,8 +8374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8403,13 +8396,13 @@
         <v>42</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -8423,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="7">
         <v>1001</v>
@@ -8437,7 +8430,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="7">
         <v>1002</v>
@@ -8675,7 +8668,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" s="15">
         <v>1015</v>
@@ -8689,7 +8682,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="15">
         <v>1015</v>
@@ -8717,7 +8710,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D23" s="21">
         <v>0</v>
@@ -8731,7 +8724,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D24" s="21">
         <v>0</v>
@@ -8745,7 +8738,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" s="21">
         <v>0</v>
@@ -8759,7 +8752,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D26" s="21">
         <v>0</v>
@@ -8773,7 +8766,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D27" s="21">
         <v>0</v>
@@ -8787,7 +8780,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D28" s="21">
         <v>0</v>
@@ -8801,7 +8794,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D29" s="21">
         <v>0</v>
@@ -8815,7 +8808,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="15">
         <v>1016</v>
@@ -8843,7 +8836,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D32" s="21">
         <v>1018</v>
@@ -8857,7 +8850,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D33" s="24">
         <v>0</v>
@@ -8872,7 +8865,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34" s="24">
         <v>0</v>
@@ -8886,7 +8879,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" s="24">
         <v>0</v>
@@ -8900,7 +8893,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="24">
         <v>0</v>
@@ -8914,7 +8907,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D37" s="24">
         <v>0</v>
@@ -8928,7 +8921,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38" s="24">
         <v>0</v>
@@ -8942,7 +8935,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" s="24">
         <v>0</v>
@@ -8956,7 +8949,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="24">
         <v>0</v>
@@ -8970,7 +8963,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="24">
         <v>0</v>
@@ -8984,7 +8977,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D42" s="21">
         <v>0</v>
@@ -8998,7 +8991,7 @@
         <v>19</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="14">
         <v>1019</v>
@@ -9068,7 +9061,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D48" s="33">
         <v>0</v>
@@ -9082,7 +9075,7 @@
         <v>25</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D49" s="35">
         <v>0</v>
@@ -9096,7 +9089,7 @@
         <v>26</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D50" s="34">
         <v>1018</v>
@@ -9110,7 +9103,7 @@
         <v>27</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D51" s="35">
         <v>0</v>
@@ -9124,7 +9117,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D52" s="35">
         <v>0</v>
@@ -9152,7 +9145,7 @@
         <v>30</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D54" s="35">
         <v>0</v>
@@ -9166,7 +9159,7 @@
         <v>31</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D55" s="35">
         <v>0</v>
@@ -9194,7 +9187,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D57" s="35">
         <v>0</v>
@@ -9208,7 +9201,7 @@
         <v>31</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D58" s="35">
         <v>0</v>
@@ -9222,7 +9215,7 @@
         <v>31</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D59" s="35">
         <v>0</v>
@@ -9236,7 +9229,7 @@
         <v>31</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D60" s="35">
         <v>0</v>
@@ -9250,7 +9243,7 @@
         <v>31</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D61" s="35">
         <v>0</v>
@@ -9264,7 +9257,7 @@
         <v>31</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D62" s="35">
         <v>0</v>
@@ -9292,7 +9285,7 @@
         <v>33</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D64" s="34">
         <v>1018</v>
@@ -9306,7 +9299,7 @@
         <v>34</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D65" s="35">
         <v>0</v>
@@ -9320,7 +9313,7 @@
         <v>35</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D66" s="35">
         <v>0</v>
@@ -9348,7 +9341,7 @@
         <v>35</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D68" s="35">
         <v>0</v>
@@ -9362,7 +9355,7 @@
         <v>35</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D69" s="35">
         <v>0</v>
@@ -9376,7 +9369,7 @@
         <v>35</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D70" s="35">
         <v>0</v>
@@ -9390,7 +9383,7 @@
         <v>35</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D71" s="35">
         <v>0</v>
@@ -9404,7 +9397,7 @@
         <v>35</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D72" s="35">
         <v>0</v>
@@ -9418,7 +9411,7 @@
         <v>35</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D73" s="35">
         <v>0</v>
@@ -9432,7 +9425,7 @@
         <v>36</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D74" s="35">
         <v>0</v>
@@ -9446,7 +9439,7 @@
         <v>37</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D75" s="35">
         <v>0</v>
@@ -9460,7 +9453,7 @@
         <v>37</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D76" s="35">
         <v>0</v>
@@ -9474,7 +9467,7 @@
         <v>37</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D77" s="35">
         <v>0</v>
@@ -9488,7 +9481,7 @@
         <v>37</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D78" s="35">
         <v>0</v>
@@ -9502,7 +9495,7 @@
         <v>37</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D79" s="35">
         <v>0</v>
@@ -9516,7 +9509,7 @@
         <v>37</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D80" s="35">
         <v>0</v>
@@ -9530,7 +9523,7 @@
         <v>37</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D81" s="35">
         <v>0</v>
@@ -9544,7 +9537,7 @@
         <v>37</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D82" s="35">
         <v>0</v>
@@ -9558,7 +9551,7 @@
         <v>38</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D83" s="35">
         <v>1024</v>
@@ -9572,7 +9565,7 @@
         <v>39</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D84" s="35">
         <v>1025</v>
@@ -9586,7 +9579,7 @@
         <v>40</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D85" s="35">
         <v>1026</v>
@@ -9600,7 +9593,7 @@
         <v>41</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D86" s="35">
         <v>1027</v>
@@ -9614,7 +9607,7 @@
         <v>42</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D87" s="35">
         <v>1028</v>
@@ -9628,7 +9621,7 @@
         <v>43</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D88" s="35">
         <v>1029</v>
@@ -9642,7 +9635,7 @@
         <v>44</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D89" s="35">
         <v>0</v>
@@ -9656,7 +9649,7 @@
         <v>45</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D90" s="35">
         <v>0</v>
@@ -9670,7 +9663,7 @@
         <v>46</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D91" s="35">
         <v>1032</v>
@@ -9684,7 +9677,7 @@
         <v>47</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D92" s="35">
         <v>1030</v>
@@ -9698,7 +9691,7 @@
         <v>48</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D93" s="35">
         <v>1031</v>
@@ -9712,7 +9705,7 @@
         <v>48</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D94" s="35">
         <v>1031</v>
@@ -9726,7 +9719,7 @@
         <v>48</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D95" s="35">
         <v>1031</v>
@@ -9740,7 +9733,7 @@
         <v>48</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D96" s="35">
         <v>1031</v>
@@ -9754,7 +9747,7 @@
         <v>48</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D97" s="35">
         <v>1031</v>
@@ -9768,7 +9761,7 @@
         <v>48</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D98" s="35">
         <v>1031</v>
@@ -9782,7 +9775,7 @@
         <v>48</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D99" s="35">
         <v>1031</v>
@@ -9796,7 +9789,7 @@
         <v>48</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D100" s="35">
         <v>1031</v>
@@ -9814,7 +9807,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9909,7 +9902,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -9957,7 +9950,7 @@
         <v>1007</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>61</v>
@@ -9975,7 +9968,7 @@
         <v>1008</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>62</v>
@@ -9993,10 +9986,10 @@
         <v>1009</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -10011,10 +10004,10 @@
         <v>1010</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -10029,10 +10022,10 @@
         <v>1011</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -10047,10 +10040,10 @@
         <v>1012</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -10065,10 +10058,10 @@
         <v>1013</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -10083,10 +10076,10 @@
         <v>1014</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -10120,10 +10113,10 @@
         <v>1016</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="E17" s="14">
         <v>2</v>
@@ -10139,10 +10132,10 @@
         <v>1017</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E18" s="24">
         <v>2</v>
@@ -10157,10 +10150,10 @@
         <v>1018</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E19" s="24">
         <v>2</v>
@@ -10175,7 +10168,7 @@
         <v>1019</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D20" s="14">
         <v>600</v>
@@ -10196,7 +10189,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="E21" s="14">
         <v>2</v>
@@ -10211,7 +10204,7 @@
         <v>1021</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>62</v>
@@ -10229,7 +10222,7 @@
         <v>1022</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>62</v>
@@ -10248,10 +10241,10 @@
         <v>1023</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -10265,7 +10258,7 @@
         <v>1024</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -10282,7 +10275,7 @@
         <v>1025</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -10299,7 +10292,7 @@
         <v>1026</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -10316,7 +10309,7 @@
         <v>1027</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -10333,10 +10326,10 @@
         <v>1028</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -10350,10 +10343,10 @@
         <v>1029</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -10367,10 +10360,10 @@
         <v>1030</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
@@ -10384,10 +10377,10 @@
         <v>1031</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -10401,10 +10394,10 @@
         <v>1032</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -10421,8 +10414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:A147"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10444,25 +10437,25 @@
         <v>54</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>78</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1">
@@ -10473,7 +10466,7 @@
         <v>1001</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="15">
         <v>100</v>
@@ -10482,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1">
@@ -10493,7 +10486,7 @@
         <v>1001</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="15">
         <v>10</v>
@@ -10510,7 +10503,7 @@
         <v>1002</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="21">
         <v>2500</v>
@@ -10520,7 +10513,7 @@
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="15"/>
     </row>
@@ -10532,7 +10525,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="21">
         <v>30</v>
@@ -10542,10 +10535,10 @@
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="21" customFormat="1">
@@ -10556,7 +10549,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="21">
         <v>10000</v>
@@ -10565,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="32"/>
     </row>
@@ -10577,7 +10570,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="21">
         <v>30</v>
@@ -10586,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -10597,7 +10590,7 @@
         <v>1004</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="21">
         <v>2000</v>
@@ -10617,7 +10610,7 @@
         <v>1004</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="21">
         <v>30</v>
@@ -10637,7 +10630,7 @@
         <v>1005</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="15">
         <v>10000</v>
@@ -10654,7 +10647,7 @@
         <v>1005</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="15">
         <v>30</v>
@@ -10671,7 +10664,7 @@
         <v>1006</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="34">
         <v>10000</v>
@@ -10691,7 +10684,7 @@
         <v>1006</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="34">
         <v>30</v>
@@ -10711,7 +10704,7 @@
         <v>1007</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D14" s="21">
         <v>2500</v>
@@ -10731,7 +10724,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="21">
         <v>30</v>
@@ -10751,7 +10744,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D16" s="15">
         <v>30000</v>
@@ -10768,7 +10761,7 @@
         <v>1008</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="15">
         <v>50</v>
@@ -10785,7 +10778,7 @@
         <v>1009</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="15">
         <v>5000</v>
@@ -10802,7 +10795,7 @@
         <v>1009</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="15">
         <v>20</v>
@@ -10819,7 +10812,7 @@
         <v>1010</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>170</v>
+        <v>352</v>
       </c>
       <c r="E20" s="15">
         <v>1</v>
@@ -10833,7 +10826,7 @@
         <v>1010</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="15">
         <v>20</v>
@@ -10850,7 +10843,7 @@
         <v>1011</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D22" s="15">
         <v>10000</v>
@@ -10867,7 +10860,7 @@
         <v>1011</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="15">
         <v>30</v>
@@ -10884,7 +10877,7 @@
         <v>1012</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D24" s="15">
         <v>30000</v>
@@ -10901,7 +10894,7 @@
         <v>1012</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="15">
         <v>30</v>
@@ -10918,7 +10911,7 @@
         <v>1013</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D26" s="15">
         <v>5000</v>
@@ -10935,7 +10928,7 @@
         <v>1013</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="15">
         <v>20</v>
@@ -10953,7 +10946,7 @@
         <v>1014</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D28" s="15">
         <v>10000</v>
@@ -10971,7 +10964,7 @@
         <v>1014</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D29" s="15">
         <v>30</v>
@@ -10989,7 +10982,7 @@
         <v>1015</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D30" s="15">
         <v>15000</v>
@@ -11007,7 +11000,7 @@
         <v>1015</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" s="15">
         <v>30</v>
@@ -11025,7 +11018,7 @@
         <v>1016</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D32" s="15">
         <v>50000</v>
@@ -11043,7 +11036,7 @@
         <v>1016</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33" s="15">
         <v>50</v>
@@ -11061,7 +11054,7 @@
         <v>1017</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D34" s="15">
         <v>15000</v>
@@ -11079,7 +11072,7 @@
         <v>1017</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35" s="15">
         <v>20</v>
@@ -11097,7 +11090,7 @@
         <v>1018</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="E36" s="15">
         <v>1</v>
@@ -11112,7 +11105,7 @@
         <v>1018</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="15">
         <v>20</v>
@@ -11130,7 +11123,7 @@
         <v>1019</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D38" s="15">
         <v>150000</v>
@@ -11148,7 +11141,7 @@
         <v>1019</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D39" s="15">
         <v>50</v>
@@ -11166,7 +11159,7 @@
         <v>1020</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D40" s="15">
         <v>20000</v>
@@ -11184,7 +11177,7 @@
         <v>1020</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="15">
         <v>20</v>
@@ -11202,7 +11195,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D42" s="15">
         <v>50000</v>
@@ -11220,7 +11213,7 @@
         <v>1021</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" s="15">
         <v>20</v>
@@ -11238,7 +11231,7 @@
         <v>1022</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D44" s="15">
         <v>15000</v>
@@ -11256,7 +11249,7 @@
         <v>1022</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="15">
         <v>30</v>
@@ -11274,7 +11267,7 @@
         <v>1023</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D46" s="15">
         <v>500000</v>
@@ -11292,7 +11285,7 @@
         <v>1023</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D47" s="15">
         <v>50</v>
@@ -11310,7 +11303,7 @@
         <v>1024</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D48" s="15">
         <v>50000</v>
@@ -11328,7 +11321,7 @@
         <v>1024</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D49" s="15">
         <v>30</v>
@@ -11346,7 +11339,7 @@
         <v>1025</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D50" s="15">
         <v>80000</v>
@@ -11364,7 +11357,7 @@
         <v>1025</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51" s="15">
         <v>20</v>
@@ -11382,7 +11375,7 @@
         <v>1026</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" s="15">
         <v>10000</v>
@@ -11400,7 +11393,7 @@
         <v>1026</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" s="15">
         <v>30</v>
@@ -11418,7 +11411,7 @@
         <v>1027</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>208</v>
+        <v>354</v>
       </c>
       <c r="E54" s="15">
         <v>1</v>
@@ -11433,7 +11426,7 @@
         <v>1027</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D55" s="15">
         <v>30</v>
@@ -11451,7 +11444,7 @@
         <v>1028</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="E56" s="15">
         <v>1</v>
@@ -11466,7 +11459,7 @@
         <v>1028</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57" s="15">
         <v>20</v>
@@ -11483,7 +11476,7 @@
         <v>1029</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D58" s="15">
         <v>30</v>
@@ -11500,7 +11493,7 @@
         <v>1029</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59" s="15">
         <v>30</v>
@@ -11517,7 +11510,7 @@
         <v>1030</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D60" s="15">
         <v>30</v>
@@ -11534,7 +11527,7 @@
         <v>1030</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61" s="15">
         <v>50</v>
@@ -11551,7 +11544,7 @@
         <v>1031</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D62" s="15">
         <v>50</v>
@@ -11568,7 +11561,7 @@
         <v>1031</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" s="15">
         <v>50</v>
@@ -11585,7 +11578,7 @@
         <v>1032</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D64" s="15">
         <v>150</v>
@@ -11602,7 +11595,7 @@
         <v>1032</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65" s="15">
         <v>50</v>
@@ -11619,7 +11612,7 @@
         <v>1033</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D66" s="15">
         <v>500</v>
@@ -11636,7 +11629,7 @@
         <v>1033</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D67" s="15">
         <v>50</v>
@@ -11653,7 +11646,7 @@
         <v>1034</v>
       </c>
       <c r="C68" s="64" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D68" s="63">
         <v>500</v>
@@ -11670,7 +11663,7 @@
         <v>1034</v>
       </c>
       <c r="C69" s="64" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D69" s="63">
         <v>5</v>
@@ -11688,7 +11681,7 @@
         <v>1035</v>
       </c>
       <c r="C70" s="64" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D70" s="63">
         <v>1000</v>
@@ -11706,7 +11699,7 @@
         <v>1035</v>
       </c>
       <c r="C71" s="64" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D71" s="63">
         <v>5</v>
@@ -11724,7 +11717,7 @@
         <v>1036</v>
       </c>
       <c r="C72" s="64" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D72" s="63">
         <v>1000</v>
@@ -11742,7 +11735,7 @@
         <v>1036</v>
       </c>
       <c r="C73" s="64" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D73" s="63">
         <v>10</v>
@@ -11760,7 +11753,7 @@
         <v>1037</v>
       </c>
       <c r="C74" s="64" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D74" s="63">
         <v>1000</v>
@@ -11778,7 +11771,7 @@
         <v>1037</v>
       </c>
       <c r="C75" s="64" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D75" s="63">
         <v>10</v>
@@ -11796,7 +11789,7 @@
         <v>1038</v>
       </c>
       <c r="C76" s="64" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D76" s="63">
         <v>1000</v>
@@ -11814,7 +11807,7 @@
         <v>1038</v>
       </c>
       <c r="C77" s="64" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D77" s="63">
         <v>10</v>
@@ -11832,7 +11825,7 @@
         <v>1039</v>
       </c>
       <c r="C78" s="64" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D78" s="63">
         <v>2000</v>
@@ -11850,7 +11843,7 @@
         <v>1039</v>
       </c>
       <c r="C79" s="64" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D79" s="63">
         <v>20</v>
@@ -11868,7 +11861,7 @@
         <v>1040</v>
       </c>
       <c r="C80" s="64" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D80" s="63">
         <v>3000</v>
@@ -11886,7 +11879,7 @@
         <v>1040</v>
       </c>
       <c r="C81" s="64" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D81" s="63">
         <v>30</v>
@@ -11904,7 +11897,7 @@
         <v>1041</v>
       </c>
       <c r="C82" s="61" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D82" s="60">
         <v>200</v>
@@ -11922,7 +11915,7 @@
         <v>1041</v>
       </c>
       <c r="C83" s="61" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D83" s="60">
         <v>5</v>
@@ -11940,7 +11933,7 @@
         <v>1042</v>
       </c>
       <c r="C84" s="61" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D84" s="60">
         <v>1000</v>
@@ -11958,7 +11951,7 @@
         <v>1042</v>
       </c>
       <c r="C85" s="61" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D85" s="60">
         <v>5</v>
@@ -11976,7 +11969,7 @@
         <v>1043</v>
       </c>
       <c r="C86" s="61" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D86" s="60">
         <v>2000</v>
@@ -11994,7 +11987,7 @@
         <v>1043</v>
       </c>
       <c r="C87" s="61" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D87" s="60">
         <v>10</v>
@@ -12012,7 +12005,7 @@
         <v>1044</v>
       </c>
       <c r="C88" s="61" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D88" s="60">
         <v>2000</v>
@@ -12030,7 +12023,7 @@
         <v>1044</v>
       </c>
       <c r="C89" s="61" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D89" s="60">
         <v>10</v>
@@ -12048,7 +12041,7 @@
         <v>1045</v>
       </c>
       <c r="C90" s="61" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D90" s="60">
         <v>3000</v>
@@ -12066,7 +12059,7 @@
         <v>1045</v>
       </c>
       <c r="C91" s="61" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D91" s="60">
         <v>10</v>
@@ -12084,7 +12077,7 @@
         <v>1046</v>
       </c>
       <c r="C92" s="61" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D92" s="60">
         <v>5000</v>
@@ -12102,7 +12095,7 @@
         <v>1046</v>
       </c>
       <c r="C93" s="61" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D93" s="60">
         <v>20</v>
@@ -12120,7 +12113,7 @@
         <v>1047</v>
       </c>
       <c r="C94" s="61" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D94" s="60">
         <v>10000</v>
@@ -12138,7 +12131,7 @@
         <v>1047</v>
       </c>
       <c r="C95" s="61" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D95" s="60">
         <v>30</v>
@@ -12155,7 +12148,7 @@
         <v>1048</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D96" s="15">
         <v>5000</v>
@@ -12172,7 +12165,7 @@
         <v>1048</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D97" s="15">
         <v>30</v>
@@ -12189,7 +12182,7 @@
         <v>1049</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D98" s="15">
         <v>20000</v>
@@ -12206,7 +12199,7 @@
         <v>1049</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D99" s="15">
         <v>50</v>
@@ -12223,7 +12216,7 @@
         <v>1050</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D100" s="15">
         <v>1500</v>
@@ -12240,7 +12233,7 @@
         <v>1050</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D101" s="15">
         <v>20</v>
@@ -12257,7 +12250,7 @@
         <v>1051</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D102" s="15">
         <v>3000</v>
@@ -12274,7 +12267,7 @@
         <v>1051</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D103" s="15">
         <v>30</v>
@@ -12291,7 +12284,7 @@
         <v>1052</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D104" s="15">
         <v>8000</v>
@@ -12308,7 +12301,7 @@
         <v>1052</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D105" s="15">
         <v>30</v>
@@ -12325,7 +12318,7 @@
         <v>1053</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D106" s="15">
         <v>100</v>
@@ -12334,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="15" customFormat="1">
@@ -12345,7 +12338,7 @@
         <v>1053</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D107" s="15">
         <v>10</v>
@@ -12362,7 +12355,7 @@
         <v>1054</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>170</v>
+        <v>352</v>
       </c>
       <c r="E108" s="15">
         <v>1</v>
@@ -12376,7 +12369,7 @@
         <v>1054</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D109" s="15">
         <v>20</v>
@@ -12393,7 +12386,7 @@
         <v>1055</v>
       </c>
       <c r="C110" s="94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D110" s="92">
         <v>500</v>
@@ -12410,7 +12403,7 @@
         <v>1055</v>
       </c>
       <c r="C111" s="94" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D111" s="92">
         <v>10</v>
@@ -12428,7 +12421,7 @@
         <v>1056</v>
       </c>
       <c r="C112" s="94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D112" s="92">
         <v>1000</v>
@@ -12446,7 +12439,7 @@
         <v>1056</v>
       </c>
       <c r="C113" s="94" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D113" s="92">
         <v>20</v>
@@ -12464,7 +12457,7 @@
         <v>1057</v>
       </c>
       <c r="C114" s="94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D114" s="92">
         <v>1000</v>
@@ -12482,7 +12475,7 @@
         <v>1057</v>
       </c>
       <c r="C115" s="94" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D115" s="92">
         <v>20</v>
@@ -12500,7 +12493,7 @@
         <v>1058</v>
       </c>
       <c r="C116" s="94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D116" s="92">
         <v>2000</v>
@@ -12518,7 +12511,7 @@
         <v>1058</v>
       </c>
       <c r="C117" s="94" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D117" s="92">
         <v>30</v>
@@ -12536,7 +12529,7 @@
         <v>1059</v>
       </c>
       <c r="C118" s="94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D118" s="92">
         <v>3000</v>
@@ -12554,7 +12547,7 @@
         <v>1059</v>
       </c>
       <c r="C119" s="94" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D119" s="92">
         <v>30</v>
@@ -12572,7 +12565,7 @@
         <v>1060</v>
       </c>
       <c r="C120" s="94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D120" s="92">
         <v>5000</v>
@@ -12590,7 +12583,7 @@
         <v>1060</v>
       </c>
       <c r="C121" s="94" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D121" s="92">
         <v>30</v>
@@ -12608,7 +12601,7 @@
         <v>1061</v>
       </c>
       <c r="C122" s="94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D122" s="92">
         <v>20000</v>
@@ -12626,7 +12619,7 @@
         <v>1061</v>
       </c>
       <c r="C123" s="94" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D123" s="92">
         <v>50</v>
@@ -12643,7 +12636,7 @@
         <v>2001</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D124" s="21">
         <v>5000</v>
@@ -12663,7 +12656,7 @@
         <v>2001</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>159</v>
+        <v>356</v>
       </c>
       <c r="D125" s="21">
         <v>2</v>
@@ -12683,7 +12676,7 @@
         <v>2002</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D126" s="21">
         <v>10000</v>
@@ -12703,7 +12696,7 @@
         <v>2002</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="D127" s="21">
         <v>1</v>
@@ -12723,7 +12716,7 @@
         <v>2003</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D128" s="21">
         <v>10000</v>
@@ -12743,7 +12736,7 @@
         <v>2003</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D129" s="21">
         <v>10000</v>
@@ -12763,7 +12756,7 @@
         <v>2004</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D130" s="21">
         <v>10000</v>
@@ -12783,7 +12776,7 @@
         <v>2004</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D131" s="21">
         <v>10000</v>
@@ -12803,7 +12796,7 @@
         <v>2005</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D132" s="21">
         <v>60000</v>
@@ -12823,7 +12816,7 @@
         <v>2006</v>
       </c>
       <c r="C133" s="94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D133" s="92">
         <v>1500</v>
@@ -12840,7 +12833,7 @@
         <v>2007</v>
       </c>
       <c r="C134" s="94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D134" s="92">
         <v>3000</v>
@@ -12857,7 +12850,7 @@
         <v>2008</v>
       </c>
       <c r="C135" s="94" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D135" s="92">
         <v>6000</v>
@@ -12874,7 +12867,7 @@
         <v>2009</v>
       </c>
       <c r="C136" s="94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D136" s="92">
         <v>8000</v>
@@ -12891,7 +12884,7 @@
         <v>2010</v>
       </c>
       <c r="C137" s="94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D137" s="92">
         <v>15000</v>
@@ -12908,7 +12901,7 @@
         <v>2011</v>
       </c>
       <c r="C138" s="75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D138" s="75">
         <v>1500</v>
@@ -12928,7 +12921,7 @@
         <v>2011</v>
       </c>
       <c r="C139" s="76" t="s">
-        <v>159</v>
+        <v>356</v>
       </c>
       <c r="D139" s="75">
         <v>1</v>
@@ -12948,7 +12941,7 @@
         <v>2012</v>
       </c>
       <c r="C140" s="75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D140" s="75">
         <v>3000</v>
@@ -12968,7 +12961,7 @@
         <v>2012</v>
       </c>
       <c r="C141" s="76" t="s">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="D141" s="75">
         <v>1</v>
@@ -12988,7 +12981,7 @@
         <v>2013</v>
       </c>
       <c r="C142" s="75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D142" s="75">
         <v>3000</v>
@@ -13008,7 +13001,7 @@
         <v>2013</v>
       </c>
       <c r="C143" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D143" s="75">
         <v>3000</v>
@@ -13028,7 +13021,7 @@
         <v>2014</v>
       </c>
       <c r="C144" s="75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D144" s="75">
         <v>3000</v>
@@ -13048,7 +13041,7 @@
         <v>2014</v>
       </c>
       <c r="C145" s="76" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D145" s="75">
         <v>3000</v>
@@ -13068,7 +13061,7 @@
         <v>2015</v>
       </c>
       <c r="C146" s="76" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D146" s="75">
         <v>20000</v>
@@ -13088,7 +13081,7 @@
         <v>2015</v>
       </c>
       <c r="C147" s="76" t="s">
-        <v>159</v>
+        <v>356</v>
       </c>
       <c r="D147" s="75">
         <v>1</v>
@@ -13124,82 +13117,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
         <v>102</v>
-      </c>
-      <c r="B9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
         <v>104</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/config_hlw/task_fish_daily_server.xlsx
+++ b/config_hlw/task_fish_daily_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_hlw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="360">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1455,6 +1455,14 @@
   </si>
   <si>
     <t>prop_fish_summon_fish</t>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计捕鱼100条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2219,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView topLeftCell="E37" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4445,10 +4453,10 @@
         <v>24</v>
       </c>
       <c r="D57" s="79" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="E57" s="79" t="s">
-        <v>236</v>
+        <v>358</v>
       </c>
       <c r="F57" s="79" t="s">
         <v>15</v>
@@ -6102,8 +6110,8 @@
   <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -10415,7 +10423,7 @@
   <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12355,7 +12363,10 @@
         <v>1054</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>352</v>
+        <v>274</v>
+      </c>
+      <c r="D108" s="15">
+        <v>1000</v>
       </c>
       <c r="E108" s="15">
         <v>1</v>

--- a/config_hlw/task_fish_daily_server.xlsx
+++ b/config_hlw/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
   <si>
     <t>id|任务id</t>
   </si>
@@ -395,6 +395,10 @@
       </rPr>
       <t>,1047,1048,1049,1050,1051,1052,1053,1054,1055,1056,1057,1058,1059,1060,</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_send_client|是否主动推送给客户端</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -883,36 +887,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="51" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.75" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.25" style="6" customWidth="1"/>
     <col min="8" max="8" width="18.875" style="6" customWidth="1"/>
     <col min="9" max="9" width="27.5" style="6" customWidth="1"/>
     <col min="10" max="10" width="25.625" style="6" customWidth="1"/>
     <col min="11" max="11" width="33" style="6" customWidth="1"/>
-    <col min="12" max="12" width="27.5" style="6" customWidth="1"/>
-    <col min="13" max="13" width="61" style="6" customWidth="1"/>
-    <col min="14" max="14" width="54.375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="35" style="6" customWidth="1"/>
-    <col min="16" max="16" width="108.5" style="6" customWidth="1"/>
-    <col min="17" max="17" width="28.875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="19.375" style="6" customWidth="1"/>
-    <col min="19" max="16384" width="11" style="6"/>
+    <col min="12" max="13" width="27.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="61" style="6" customWidth="1"/>
+    <col min="15" max="15" width="54.375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="35" style="6" customWidth="1"/>
+    <col min="17" max="17" width="108.5" style="6" customWidth="1"/>
+    <col min="18" max="18" width="28.875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="27">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -949,11 +952,14 @@
       <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="21" customFormat="1">
+    <row r="2" spans="1:14" s="21" customFormat="1">
       <c r="A2" s="20">
         <v>12501</v>
       </c>
@@ -990,11 +996,14 @@
       <c r="L2" s="20">
         <v>-1</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="20">
+        <v>1</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="16" customFormat="1">
+    <row r="3" spans="1:14" s="16" customFormat="1">
       <c r="A3" s="20">
         <v>12502</v>
       </c>
@@ -1031,11 +1040,14 @@
       <c r="L3" s="15">
         <v>-1</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="15">
+        <v>1</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="21" customFormat="1">
+    <row r="4" spans="1:14" s="21" customFormat="1">
       <c r="A4" s="20">
         <v>12503</v>
       </c>
@@ -1072,11 +1084,14 @@
       <c r="L4" s="20">
         <v>-1</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="20">
+        <v>1</v>
+      </c>
+      <c r="N4" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="16" customFormat="1">
+    <row r="5" spans="1:14" s="16" customFormat="1">
       <c r="A5" s="20">
         <v>12504</v>
       </c>
@@ -1113,61 +1128,64 @@
       <c r="L5" s="15">
         <v>-1</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="15">
+        <v>1</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="G16" s="1"/>
@@ -2386,7 +2404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>

--- a/config_hlw/task_fish_daily_server.xlsx
+++ b/config_hlw/task_fish_daily_server.xlsx
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1022,8 +1022,8 @@
       <c r="F3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="15">
-        <v>12516</v>
+      <c r="G3" s="20">
+        <v>12502</v>
       </c>
       <c r="H3" s="15" t="b">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="20">
-        <v>12531</v>
+        <v>12503</v>
       </c>
       <c r="H4" s="20" t="b">
         <v>1</v>
@@ -1110,8 +1110,8 @@
       <c r="F5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="15">
-        <v>12546</v>
+      <c r="G5" s="20">
+        <v>12504</v>
       </c>
       <c r="H5" s="15" t="b">
         <v>1</v>
@@ -1731,9 +1731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="3" spans="1:7" s="18" customFormat="1">
       <c r="A3" s="22">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B3" s="20">
         <v>12502</v>
@@ -1814,14 +1814,14 @@
     </row>
     <row r="4" spans="1:7" s="23" customFormat="1">
       <c r="A4" s="22">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B4" s="20">
         <v>12503</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>83</v>
@@ -1835,14 +1835,14 @@
     </row>
     <row r="5" spans="1:7" s="18" customFormat="1">
       <c r="A5" s="22">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B5" s="20">
         <v>12504</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>84</v>
@@ -2253,7 +2253,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2404,7 +2404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>

--- a/config_hlw/task_fish_daily_server.xlsx
+++ b/config_hlw/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -889,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
@@ -2404,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2545,7 +2545,7 @@
         <v>1005</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="21">
         <v>1000</v>
@@ -2566,7 +2566,7 @@
         <v>1006</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="21">
         <v>1500</v>

--- a/config_hlw/task_fish_daily_server.xlsx
+++ b/config_hlw/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="98">
   <si>
     <t>id|任务id</t>
   </si>
@@ -259,18 +259,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>fish_game_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>condition_type|条件类型</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_award</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>福卡场累计获得福卡1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -279,10 +271,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>21843,21844,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>jing_bi</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -314,10 +302,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>6,7,8,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>reset_task_by_month_task</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -326,9 +310,6 @@
   </si>
   <si>
     <t>100000,400000,1500000,6000000,12000000,60000000,120000000,600000000,1200000000,3000000000,3000000000,7000000000,5000000000,10000000000,20000000000,</t>
-  </si>
-  <si>
-    <t>100,200,500,700,1500,3500,5500,8000,5000,5000,20000,50000,60000,70000,270000,</t>
   </si>
   <si>
     <t>500,500,4000,25000,40000,80000,100000,150000,150000,450000,1000000,1500000,2500000,2000000,2000000,</t>
@@ -399,6 +380,47 @@
   </si>
   <si>
     <t>is_send_client|是否主动推送给客户端</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>21842,21843,21844,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_award</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_award</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_award</t>
+  </si>
+  <si>
+    <t>tantanle_award</t>
+  </si>
+  <si>
+    <t>guess_apple_award</t>
+  </si>
+  <si>
+    <t>jykp_award</t>
+  </si>
+  <si>
+    <t>zajindan_award</t>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_sanguo_award</t>
+  </si>
+  <si>
+    <t>lianxianxiaoxiaole_award</t>
+  </si>
+  <si>
+    <t>3,47,50,200,500,700,1500,3500,5500,8000,5000,5000,20000,50000,100000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -953,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>12</v>
@@ -967,13 +989,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>13</v>
@@ -1011,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="G3" s="20">
         <v>12502</v>
@@ -1055,13 +1077,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>13</v>
@@ -1099,16 +1121,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G5" s="20">
         <v>12504</v>
@@ -1729,11 +1751,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1755,7 +1777,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>16</v>
@@ -1782,10 +1804,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>20</v>
@@ -1803,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>20</v>
@@ -1823,11 +1845,11 @@
       <c r="D4" s="22">
         <v>2</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>83</v>
+      <c r="E4" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>20</v>
@@ -1845,10 +1867,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>20</v>
@@ -2192,54 +2214,6 @@
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="6"/>
-    </row>
-    <row r="119" spans="6:6">
-      <c r="F119" s="6"/>
-    </row>
-    <row r="120" spans="6:6">
-      <c r="F120" s="6"/>
-    </row>
-    <row r="121" spans="6:6">
-      <c r="F121" s="6"/>
-    </row>
-    <row r="122" spans="6:6">
-      <c r="F122" s="6"/>
-    </row>
-    <row r="123" spans="6:6">
-      <c r="F123" s="6"/>
-    </row>
-    <row r="124" spans="6:6">
-      <c r="F124" s="6"/>
-    </row>
-    <row r="125" spans="6:6">
-      <c r="F125" s="6"/>
-    </row>
-    <row r="126" spans="6:6">
-      <c r="F126" s="6"/>
-    </row>
-    <row r="127" spans="6:6">
-      <c r="F127" s="6"/>
-    </row>
-    <row r="128" spans="6:6">
-      <c r="F128" s="6"/>
-    </row>
-    <row r="129" spans="6:6">
-      <c r="F129" s="6"/>
-    </row>
-    <row r="130" spans="6:6">
-      <c r="F130" s="6"/>
-    </row>
-    <row r="131" spans="6:6">
-      <c r="F131" s="6"/>
-    </row>
-    <row r="132" spans="6:6">
-      <c r="F132" s="6"/>
-    </row>
-    <row r="133" spans="6:6">
-      <c r="F133" s="6"/>
-    </row>
-    <row r="134" spans="6:6">
-      <c r="F134" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2250,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2294,24 +2268,142 @@
         <v>1</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="26">
-        <v>1001</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="24">
         <v>2</v>
       </c>
       <c r="B3" s="24">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24">
+        <v>1</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24">
+        <v>1</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24">
+        <v>1</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24">
+        <v>1</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24">
+        <v>1</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="26">
-        <v>1002</v>
+      <c r="C13" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -2323,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2367,29 +2459,12 @@
         <v>1001</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1002</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2404,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2457,7 +2532,7 @@
         <v>1001</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" s="21">
         <v>200</v>
@@ -2478,7 +2553,7 @@
         <v>1002</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" s="21">
         <v>500</v>
@@ -2499,7 +2574,7 @@
         <v>1003</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" s="21">
         <v>600</v>
@@ -2523,7 +2598,7 @@
         <v>1004</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" s="21">
         <v>800</v>
@@ -2545,7 +2620,7 @@
         <v>1005</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="21">
         <v>1000</v>
@@ -2566,7 +2641,7 @@
         <v>1006</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D7" s="21">
         <v>1500</v>
@@ -2584,7 +2659,7 @@
         <v>1007</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="21">
         <v>10</v>
@@ -2603,7 +2678,7 @@
         <v>1008</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="21">
         <v>50</v>
@@ -2621,7 +2696,7 @@
         <v>1009</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" s="21">
         <v>100</v>
@@ -2639,7 +2714,7 @@
         <v>1010</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11" s="21">
         <v>400</v>
@@ -2657,7 +2732,7 @@
         <v>1011</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="21">
         <v>500</v>
@@ -2675,7 +2750,7 @@
         <v>1012</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D13" s="21">
         <v>1000</v>
@@ -2693,7 +2768,7 @@
         <v>1013</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D14" s="21">
         <v>2000</v>
@@ -2711,7 +2786,7 @@
         <v>1014</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D15" s="21">
         <v>3000</v>
@@ -2729,7 +2804,7 @@
         <v>1015</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D16" s="21">
         <v>5000</v>
@@ -2747,7 +2822,7 @@
         <v>1016</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" s="16">
         <v>600</v>
@@ -2765,7 +2840,7 @@
         <v>1017</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" s="16">
         <v>2000</v>
@@ -2783,7 +2858,7 @@
         <v>1018</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="16">
         <v>5000</v>
@@ -2801,7 +2876,7 @@
         <v>1019</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" s="16">
         <v>8000</v>
@@ -2819,7 +2894,7 @@
         <v>1020</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D21" s="16">
         <v>50</v>
@@ -2837,7 +2912,7 @@
         <v>1021</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D22" s="16">
         <v>100</v>
@@ -2855,7 +2930,7 @@
         <v>1022</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D23" s="16">
         <v>1000</v>
@@ -2873,7 +2948,7 @@
         <v>1023</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D24" s="16">
         <v>1800</v>
@@ -2891,7 +2966,7 @@
         <v>1024</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D25" s="16">
         <v>6800</v>
@@ -2909,7 +2984,7 @@
         <v>1025</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D26" s="16">
         <v>10800</v>
@@ -2927,7 +3002,7 @@
         <v>1026</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D27" s="16">
         <v>38800</v>
@@ -2945,7 +3020,7 @@
         <v>1027</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D28" s="16">
         <v>58800</v>
@@ -2963,7 +3038,7 @@
         <v>1028</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D29" s="16">
         <v>88800</v>
@@ -2981,7 +3056,7 @@
         <v>1029</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D30" s="16">
         <v>188800</v>
@@ -2999,7 +3074,7 @@
         <v>1030</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D31" s="16">
         <v>288800</v>
@@ -3017,10 +3092,10 @@
         <v>1031</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D32" s="21">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E32" s="21">
         <v>1</v>
@@ -3034,10 +3109,10 @@
         <v>1032</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D33" s="21">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="E33" s="21">
         <v>1</v>
@@ -3051,10 +3126,10 @@
         <v>1033</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D34" s="21">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E34" s="21">
         <v>1</v>
@@ -3068,10 +3143,10 @@
         <v>1034</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D35" s="21">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="E35" s="21">
         <v>1</v>
@@ -3085,10 +3160,10 @@
         <v>1035</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D36" s="21">
-        <v>60</v>
+        <v>5000</v>
       </c>
       <c r="E36" s="21">
         <v>1</v>
@@ -3102,10 +3177,10 @@
         <v>1036</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D37" s="21">
-        <v>150</v>
+        <v>6000</v>
       </c>
       <c r="E37" s="21">
         <v>1</v>
@@ -3119,10 +3194,10 @@
         <v>1037</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D38" s="21">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="E38" s="21">
         <v>1</v>
@@ -3136,10 +3211,10 @@
         <v>1038</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D39" s="21">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E39" s="21">
         <v>1</v>
@@ -3153,10 +3228,10 @@
         <v>1039</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D40" s="21">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E40" s="21">
         <v>1</v>
@@ -3170,7 +3245,7 @@
         <v>1040</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D41" s="21">
         <v>300</v>
@@ -3187,10 +3262,10 @@
         <v>1041</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D42" s="21">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E42" s="21">
         <v>1</v>
@@ -3204,10 +3279,10 @@
         <v>1042</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D43" s="21">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E43" s="21">
         <v>1</v>
@@ -3221,10 +3296,10 @@
         <v>1043</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D44" s="21">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E44" s="21">
         <v>1</v>
@@ -3238,10 +3313,10 @@
         <v>1044</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D45" s="21">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E45" s="21">
         <v>1</v>
@@ -3255,10 +3330,10 @@
         <v>1045</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D46" s="21">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E46" s="21">
         <v>1</v>
@@ -3272,7 +3347,7 @@
         <v>1046</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D47" s="16">
         <v>5000</v>
@@ -3289,7 +3364,7 @@
         <v>1047</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D48" s="16">
         <v>8000</v>
@@ -3306,7 +3381,7 @@
         <v>1048</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D49" s="16">
         <v>40000</v>
@@ -3323,7 +3398,7 @@
         <v>1049</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D50" s="16">
         <v>1600</v>
@@ -3340,7 +3415,7 @@
         <v>1050</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D51" s="16">
         <v>1600</v>
@@ -3357,7 +3432,7 @@
         <v>1051</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D52" s="16">
         <v>2600</v>
@@ -3374,7 +3449,7 @@
         <v>1052</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D53" s="16">
         <v>5600</v>
@@ -3391,7 +3466,7 @@
         <v>1053</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D54" s="16">
         <v>6600</v>
@@ -3408,7 +3483,7 @@
         <v>1054</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D55" s="16">
         <v>7600</v>
@@ -3425,7 +3500,7 @@
         <v>1055</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D56" s="16">
         <v>11800</v>
@@ -3442,7 +3517,7 @@
         <v>1056</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D57" s="16">
         <v>18800</v>
@@ -3459,7 +3534,7 @@
         <v>1057</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D58" s="16">
         <v>38800</v>
@@ -3476,7 +3551,7 @@
         <v>1058</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D59" s="16">
         <v>66600</v>
@@ -3493,7 +3568,7 @@
         <v>1059</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D60" s="16">
         <v>88800</v>
@@ -3510,7 +3585,7 @@
         <v>1060</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D61" s="16">
         <v>100000</v>
